--- a/LH_TESTCASES/LH_TC_ADMINHOME.xlsx
+++ b/LH_TESTCASES/LH_TC_ADMINHOME.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Desktop\Group-3-Learning-hub-dev (5)\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135DA8CB-8CE0-4DA0-A495-42F7136B2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_ADMINHOME" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Preconditions</t>
   </si>
@@ -196,11 +197,6 @@
 </t>
   </si>
   <si>
-    <t>Admin credentials:
-email: admin1@iti.cv
-password: Admin@131312</t>
-  </si>
-  <si>
     <t>1. User Navigates the browser url.
 2. Login with valid email and password
 3.Navigates to the [AdminHome] 
@@ -232,19 +228,53 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Each Admin Tool action is labeled, accessible, and requires
- confirmation.
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Admin credentials:
+email: admin@gmail.com
+password: Admin@123</t>
+  </si>
+  <si>
+    <t>The system provides administrators with access to a dedicated
+Admin Home Page.This page displays all posts from every
+category, including each post’s title and a short preview.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>dropdown exists with labels delete post and delete user</t>
+  </si>
+  <si>
+    <t>Welcome Admin is present</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>fetching doesn’t fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Admin Tool action is labeled, accessible
 </t>
   </si>
   <si>
-    <t>Chrome</t>
+    <t xml:space="preserve">each tool is clearly labeled and accessible and secure
+</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>Executed all tcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +336,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -452,16 +495,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -481,18 +520,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -551,9 +587,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -591,9 +627,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +664,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +699,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -836,350 +872,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView topLeftCell="B10" zoomScale="38" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="97" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="110.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="14"/>
-    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="74.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="110.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="12"/>
+    <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="117" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="F15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="22" t="s">
+    <row r="16" spans="1:10" ht="117" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="93" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="93" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22" t="s">
+      <c r="H16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F17" s="15"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F19" s="15"/>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F17" s="13"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I9"/>
+  <autoFilter ref="A8:I9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -1195,7 +1263,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass, Fail, Blocked, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1205,62 +1273,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="19">
         <v>45789</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="19">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>